--- a/biology/Médecine/Syndrome_de_Hughes-Stovin/Syndrome_de_Hughes-Stovin.xlsx
+++ b/biology/Médecine/Syndrome_de_Hughes-Stovin/Syndrome_de_Hughes-Stovin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Hughes-Stovin est défini par l'association d'anévrismes pulmonaires et de thrombose veineuse, notamment cave. C'est une complication rare de la maladie de Behçet, associée à un taux de mortalité élevé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Hughes-Stovin est défini par l'association d'anévrismes pulmonaires et de thrombose veineuse, notamment cave. C'est une complication rare de la maladie de Behçet, associée à un taux de mortalité élevé.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome a été décrit par John Patterson Hughes et Peter George Ingle Stovin en 1959[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome a été décrit par John Patterson Hughes et Peter George Ingle Stovin en 1959.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une maladie rarissime avec quelques dizaines de cas décrits[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une maladie rarissime avec quelques dizaines de cas décrits.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il repose sur les corticoïdes ou le cyclophosphamide[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il repose sur les corticoïdes ou le cyclophosphamide. 
 La taille des anévrismes, avec risque de rupture, peut requérir une intervention chirurgicale ou une embolisation.
 </t>
         </is>
